--- a/data/Construction_material_market_prices(1999-2024).xlsx
+++ b/data/Construction_material_market_prices(1999-2024).xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_352A0D8E37CE1CCC9F9C3D2C1F37F4464DB75E24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF486615-3D26-465D-B6DD-D09996F91A75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138C88A0-D72C-9B41-964D-859C6071E9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M211251" sheetId="1" r:id="rId1"/>
+    <sheet name="Price" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="340">
   <si>
     <t/>
   </si>
@@ -1084,6 +1085,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1475,14 +1477,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:KQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:DS15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="303" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2393,37 +2397,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:303" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:303" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>310</v>
       </c>
@@ -4245,7 +4249,7 @@
         <v>79.22</v>
       </c>
     </row>
-    <row r="12" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>311</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>483.99</v>
       </c>
     </row>
-    <row r="13" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>312</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="14" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>313</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="15" spans="1:303" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:303" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>314</v>
       </c>
@@ -7889,127 +7893,127 @@
         <v>71.290000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>339</v>
       </c>
@@ -8017,5 +8021,2255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4CAA89-8355-8141-8B84-3CB61A10C899}">
+  <dimension ref="A1:DS6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:DS6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:123" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="DC1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="DE1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="DF1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="DH1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="DI1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="DJ1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="DL1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="DM1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="DN1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="DO1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="DP1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DS1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="4">
+        <v>110.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>110.6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>111.7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>112</v>
+      </c>
+      <c r="F2" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>113.5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>114.4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>115.2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>116.7</v>
+      </c>
+      <c r="K2" s="4">
+        <v>117.2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>118</v>
+      </c>
+      <c r="M2" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>118.4</v>
+      </c>
+      <c r="O2" s="4">
+        <v>118.5</v>
+      </c>
+      <c r="P2" s="4">
+        <v>118.3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>118.4</v>
+      </c>
+      <c r="R2" s="4">
+        <v>118.6</v>
+      </c>
+      <c r="S2" s="4">
+        <v>118.6</v>
+      </c>
+      <c r="T2" s="5">
+        <v>119</v>
+      </c>
+      <c r="U2" s="4">
+        <v>118.5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>118.3</v>
+      </c>
+      <c r="W2" s="4">
+        <v>118.4</v>
+      </c>
+      <c r="X2" s="4">
+        <v>112.7</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>106.3</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>104.6</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>96.1</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>95.1</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>95.1</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>91.2</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>85.7</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>85.7</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>85.7</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>86</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>85.7</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>85.9</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="AV2" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>86</v>
+      </c>
+      <c r="AX2" s="4">
+        <v>85.3</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>84.6</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="BB2" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="5">
+        <v>83</v>
+      </c>
+      <c r="BE2" s="5">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>82.2</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="BI2" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="BJ2" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="BK2" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="BL2" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="BM2" s="4">
+        <v>79.7</v>
+      </c>
+      <c r="BN2" s="4">
+        <v>79.3</v>
+      </c>
+      <c r="BO2" s="4">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="BP2" s="5">
+        <v>79</v>
+      </c>
+      <c r="BQ2" s="4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="BR2" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="BS2" s="4">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="BT2" s="4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="BU2" s="4">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="BV2" s="4">
+        <v>75.7</v>
+      </c>
+      <c r="BW2" s="4">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="BX2" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BY2" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="BZ2" s="4">
+        <v>75.8</v>
+      </c>
+      <c r="CA2" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="CB2" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="CC2" s="5">
+        <v>76</v>
+      </c>
+      <c r="CD2" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="CE2" s="4">
+        <v>76.2</v>
+      </c>
+      <c r="CF2" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="CG2" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="CH2" s="4">
+        <v>76.3</v>
+      </c>
+      <c r="CI2" s="4">
+        <v>76.8</v>
+      </c>
+      <c r="CJ2" s="5">
+        <v>79</v>
+      </c>
+      <c r="CK2" s="4">
+        <v>79.3</v>
+      </c>
+      <c r="CL2" s="4">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="CM2" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="CN2" s="4">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="CO2" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="CP2" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="CQ2" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="CR2" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="CS2" s="4">
+        <v>86.7</v>
+      </c>
+      <c r="CT2" s="4">
+        <v>87.3</v>
+      </c>
+      <c r="CU2" s="4">
+        <v>88.9</v>
+      </c>
+      <c r="CV2" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="CW2" s="5">
+        <v>91</v>
+      </c>
+      <c r="CX2" s="5">
+        <v>92</v>
+      </c>
+      <c r="CY2" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="CZ2" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="DA2" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="DB2" s="5">
+        <v>93</v>
+      </c>
+      <c r="DC2" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="DD2" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="DE2" s="4">
+        <v>94.3</v>
+      </c>
+      <c r="DF2" s="4">
+        <v>94.4</v>
+      </c>
+      <c r="DG2" s="4">
+        <v>95.1</v>
+      </c>
+      <c r="DH2" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="DI2" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="DJ2" s="5">
+        <v>97</v>
+      </c>
+      <c r="DK2" s="4">
+        <v>97.2</v>
+      </c>
+      <c r="DL2" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="DM2" s="4">
+        <v>98.1</v>
+      </c>
+      <c r="DN2" s="4">
+        <v>98.6</v>
+      </c>
+      <c r="DO2" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="DP2" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="DQ2" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="DR2" s="5">
+        <v>99</v>
+      </c>
+      <c r="DS2" s="4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="5">
+        <v>830</v>
+      </c>
+      <c r="C3" s="4">
+        <v>833.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>819.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>826.7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>827.4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>830.1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>832.6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>859.2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>885.5</v>
+      </c>
+      <c r="K3" s="4">
+        <v>922.8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>940.1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>946.6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>942.1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>922.6</v>
+      </c>
+      <c r="P3" s="4">
+        <v>952.3</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1004.5</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1040.5</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1072.5999999999999</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1106.3</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1187.79</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1245.5</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1246.21</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1270.54</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1241.5</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>1146.4000000000001</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1106.4000000000001</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>1105.5</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1113.47</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>1112.9000000000001</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1105.4000000000001</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>1111.9000000000001</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>1104.0999999999999</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1101.2</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>1085.1600000000001</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>962.1</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>933.29</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>913.32</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>910.51</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>808.52</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>733.7</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>720.1</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>717.8</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>712.9</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>718.4</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>716.5</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>716.3</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>716.3</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>718</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>712</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>714.9</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>713.9</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>721.9</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>723.9</v>
+      </c>
+      <c r="BC3" s="4">
+        <v>739.6</v>
+      </c>
+      <c r="BD3" s="4">
+        <v>745.7</v>
+      </c>
+      <c r="BE3" s="4">
+        <v>752.1</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>752.6</v>
+      </c>
+      <c r="BG3" s="5">
+        <v>757</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>749.2</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>753.2</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>747.1</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>746.2</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>751</v>
+      </c>
+      <c r="BM3" s="5">
+        <v>775</v>
+      </c>
+      <c r="BN3" s="5">
+        <v>795</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>795.6</v>
+      </c>
+      <c r="BP3" s="4">
+        <v>801.5</v>
+      </c>
+      <c r="BQ3" s="4">
+        <v>800.1</v>
+      </c>
+      <c r="BR3" s="4">
+        <v>793.8</v>
+      </c>
+      <c r="BS3" s="4">
+        <v>781.3</v>
+      </c>
+      <c r="BT3" s="4">
+        <v>780.2</v>
+      </c>
+      <c r="BU3" s="4">
+        <v>789.9</v>
+      </c>
+      <c r="BV3" s="4">
+        <v>784.2</v>
+      </c>
+      <c r="BW3" s="4">
+        <v>789.5</v>
+      </c>
+      <c r="BX3" s="5">
+        <v>783</v>
+      </c>
+      <c r="BY3" s="4">
+        <v>760.1</v>
+      </c>
+      <c r="BZ3" s="4">
+        <v>761.4</v>
+      </c>
+      <c r="CA3" s="4">
+        <v>776.1</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>752</v>
+      </c>
+      <c r="CC3" s="4">
+        <v>644.1</v>
+      </c>
+      <c r="CD3" s="4">
+        <v>608.20000000000005</v>
+      </c>
+      <c r="CE3" s="4">
+        <v>610.20000000000005</v>
+      </c>
+      <c r="CF3" s="4">
+        <v>635.1</v>
+      </c>
+      <c r="CG3" s="4">
+        <v>642.79999999999995</v>
+      </c>
+      <c r="CH3" s="4">
+        <v>647.5</v>
+      </c>
+      <c r="CI3" s="4">
+        <v>645.5</v>
+      </c>
+      <c r="CJ3" s="4">
+        <v>649.6</v>
+      </c>
+      <c r="CK3" s="4">
+        <v>553.1</v>
+      </c>
+      <c r="CL3" s="4">
+        <v>493.6</v>
+      </c>
+      <c r="CM3" s="5">
+        <v>496</v>
+      </c>
+      <c r="CN3" s="4">
+        <v>500.3</v>
+      </c>
+      <c r="CO3" s="4">
+        <v>489.2</v>
+      </c>
+      <c r="CP3" s="4">
+        <v>493.1</v>
+      </c>
+      <c r="CQ3" s="4">
+        <v>548.1</v>
+      </c>
+      <c r="CR3" s="4">
+        <v>534.5</v>
+      </c>
+      <c r="CS3" s="4">
+        <v>446.6</v>
+      </c>
+      <c r="CT3" s="4">
+        <v>410.5</v>
+      </c>
+      <c r="CU3" s="4">
+        <v>391.6</v>
+      </c>
+      <c r="CV3" s="4">
+        <v>397.1</v>
+      </c>
+      <c r="CW3" s="4">
+        <v>424.6</v>
+      </c>
+      <c r="CX3" s="4">
+        <v>449.6</v>
+      </c>
+      <c r="CY3" s="5">
+        <v>462</v>
+      </c>
+      <c r="CZ3" s="4">
+        <v>473.9</v>
+      </c>
+      <c r="DA3" s="4">
+        <v>486.4</v>
+      </c>
+      <c r="DB3" s="4">
+        <v>506.6</v>
+      </c>
+      <c r="DC3" s="4">
+        <v>518.9</v>
+      </c>
+      <c r="DD3" s="4">
+        <v>542.9</v>
+      </c>
+      <c r="DE3" s="4">
+        <v>565.5</v>
+      </c>
+      <c r="DF3" s="4">
+        <v>589.6</v>
+      </c>
+      <c r="DG3" s="4">
+        <v>599.70000000000005</v>
+      </c>
+      <c r="DH3" s="4">
+        <v>612.5</v>
+      </c>
+      <c r="DI3" s="4">
+        <v>605.9</v>
+      </c>
+      <c r="DJ3" s="4">
+        <v>601.4</v>
+      </c>
+      <c r="DK3" s="4">
+        <v>611.5</v>
+      </c>
+      <c r="DL3" s="4">
+        <v>620.9</v>
+      </c>
+      <c r="DM3" s="4">
+        <v>629.79999999999995</v>
+      </c>
+      <c r="DN3" s="4">
+        <v>655.5</v>
+      </c>
+      <c r="DO3" s="4">
+        <v>673.4</v>
+      </c>
+      <c r="DP3" s="4">
+        <v>691.2</v>
+      </c>
+      <c r="DQ3" s="4">
+        <v>705.9</v>
+      </c>
+      <c r="DR3" s="4">
+        <v>715.4</v>
+      </c>
+      <c r="DS3" s="4">
+        <v>723.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="M4" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>19</v>
+      </c>
+      <c r="P4" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="R4" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S4" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="T4" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="U4" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="V4" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="W4" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="X4" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>18</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>18</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>18</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>19</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="BA4" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="BC4" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="BD4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="BE4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BH4" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="BI4" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="BJ4" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="BK4" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="BL4" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BM4" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BN4" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="BO4" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="BP4" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BQ4" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BR4" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BS4" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="BT4" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="BU4" s="5">
+        <v>17</v>
+      </c>
+      <c r="BV4" s="5">
+        <v>17</v>
+      </c>
+      <c r="BW4" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="BX4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="BY4" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="BZ4" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="CA4" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="CB4" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="CC4" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="CD4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="CE4" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="CF4" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="CG4" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="CH4" s="5">
+        <v>15</v>
+      </c>
+      <c r="CI4" s="4">
+        <v>15.2</v>
+      </c>
+      <c r="CJ4" s="5">
+        <v>15</v>
+      </c>
+      <c r="CK4" s="5">
+        <v>15</v>
+      </c>
+      <c r="CL4" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="CM4" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="CN4" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="CO4" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="CP4" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="CQ4" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="CR4" s="5">
+        <v>16</v>
+      </c>
+      <c r="CS4" s="5">
+        <v>16</v>
+      </c>
+      <c r="CT4" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="CU4" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="CV4" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="CW4" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="CX4" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="CY4" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="CZ4" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="DA4" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="DB4" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="DC4" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="DD4" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="DE4" s="5">
+        <v>21</v>
+      </c>
+      <c r="DF4" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="DG4" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="DH4" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="DI4" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="DJ4" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="DK4" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="DL4" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="DM4" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="DN4" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="DO4" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="DP4" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="DQ4" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="DR4" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="DS4" s="4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>29</v>
+      </c>
+      <c r="J5" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="R5" s="5">
+        <v>23</v>
+      </c>
+      <c r="S5" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="T5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="U5" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="V5" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="W5" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>23</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="AP5" s="5">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>25</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>25</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>25</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>30</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="BJ5" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="BK5" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="BL5" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="BM5" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="BN5" s="5">
+        <v>20</v>
+      </c>
+      <c r="BO5" s="5">
+        <v>19</v>
+      </c>
+      <c r="BP5" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="BQ5" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BR5" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="BS5" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="BT5" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="BU5" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="BV5" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="BW5" s="5">
+        <v>18</v>
+      </c>
+      <c r="BX5" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="BY5" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="BZ5" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="CA5" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="CB5" s="5">
+        <v>18</v>
+      </c>
+      <c r="CC5" s="5">
+        <v>17</v>
+      </c>
+      <c r="CD5" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="CE5" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="CF5" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="CG5" s="5">
+        <v>17</v>
+      </c>
+      <c r="CH5" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="CI5" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="CJ5" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="CK5" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="CL5" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="CM5" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="CN5" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="CO5" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="CP5" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="CQ5" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="CR5" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="CS5" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="CT5" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="CU5" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="CV5" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="CW5" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="CX5" s="5">
+        <v>22</v>
+      </c>
+      <c r="CY5" s="5">
+        <v>23</v>
+      </c>
+      <c r="CZ5" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="DA5" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="DB5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="DC5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="DD5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="DE5" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="DF5" s="5">
+        <v>23</v>
+      </c>
+      <c r="DG5" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="DH5" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="DI5" s="5">
+        <v>23</v>
+      </c>
+      <c r="DJ5" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="DK5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="DL5" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="DM5" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="DN5" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="DO5" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="DP5" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="DQ5" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="DR5" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="DS5" s="4">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="4">
+        <v>117.8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>118.1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>116.3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>117.3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>117.6</v>
+      </c>
+      <c r="L6" s="4">
+        <v>117.2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="N6" s="4">
+        <v>118.1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>117.6</v>
+      </c>
+      <c r="P6" s="5">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>118.5</v>
+      </c>
+      <c r="S6" s="4">
+        <v>118.6</v>
+      </c>
+      <c r="T6" s="4">
+        <v>118.3</v>
+      </c>
+      <c r="U6" s="4">
+        <v>118.6</v>
+      </c>
+      <c r="V6" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="W6" s="4">
+        <v>117.9</v>
+      </c>
+      <c r="X6" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>112.7</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>105.7</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>105.3</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>104.2</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>104.2</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>103</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>104.1</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>104.6</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>102.8</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>95.2</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>95.2</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>94.3</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>94.4</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>94.3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>96.1</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>95.6</v>
+      </c>
+      <c r="BD6" s="5">
+        <v>95</v>
+      </c>
+      <c r="BE6" s="5">
+        <v>95</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="BH6" s="5">
+        <v>94</v>
+      </c>
+      <c r="BI6" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="BJ6" s="4">
+        <v>89.8</v>
+      </c>
+      <c r="BK6" s="4">
+        <v>87.3</v>
+      </c>
+      <c r="BL6" s="4">
+        <v>87.1</v>
+      </c>
+      <c r="BM6" s="4">
+        <v>86.8</v>
+      </c>
+      <c r="BN6" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="BO6" s="4">
+        <v>85.5</v>
+      </c>
+      <c r="BP6" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="BQ6" s="5">
+        <v>85</v>
+      </c>
+      <c r="BR6" s="4">
+        <v>84.9</v>
+      </c>
+      <c r="BS6" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="BT6" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="BU6" s="4">
+        <v>84.3</v>
+      </c>
+      <c r="BV6" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="BW6" s="4">
+        <v>84.2</v>
+      </c>
+      <c r="BX6" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="BY6" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="BZ6" s="4">
+        <v>82.2</v>
+      </c>
+      <c r="CA6" s="4">
+        <v>82.2</v>
+      </c>
+      <c r="CB6" s="4">
+        <v>81.3</v>
+      </c>
+      <c r="CC6" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="CD6" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="CE6" s="4">
+        <v>80.2</v>
+      </c>
+      <c r="CF6" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="CG6" s="4">
+        <v>80.7</v>
+      </c>
+      <c r="CH6" s="4">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="CI6" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="CJ6" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="CK6" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="CL6" s="4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="CM6" s="4">
+        <v>82.2</v>
+      </c>
+      <c r="CN6" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="CO6" s="4">
+        <v>83.7</v>
+      </c>
+      <c r="CP6" s="4">
+        <v>84.6</v>
+      </c>
+      <c r="CQ6" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="CR6" s="4">
+        <v>86.9</v>
+      </c>
+      <c r="CS6" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="CT6" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="CU6" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="CV6" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="CW6" s="4">
+        <v>98.1</v>
+      </c>
+      <c r="CX6" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="CY6" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="CZ6" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="DA6" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="DB6" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="DC6" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="DD6" s="4">
+        <v>100.9</v>
+      </c>
+      <c r="DE6" s="4">
+        <v>100.5</v>
+      </c>
+      <c r="DF6" s="4">
+        <v>100.5</v>
+      </c>
+      <c r="DG6" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="DH6" s="4">
+        <v>103.3</v>
+      </c>
+      <c r="DI6" s="4">
+        <v>106.4</v>
+      </c>
+      <c r="DJ6" s="4">
+        <v>109.5</v>
+      </c>
+      <c r="DK6" s="4">
+        <v>110.7</v>
+      </c>
+      <c r="DL6" s="5">
+        <v>111</v>
+      </c>
+      <c r="DM6" s="4">
+        <v>111.3</v>
+      </c>
+      <c r="DN6" s="4">
+        <v>111.8</v>
+      </c>
+      <c r="DO6" s="4">
+        <v>112.4</v>
+      </c>
+      <c r="DP6" s="4">
+        <v>114.2</v>
+      </c>
+      <c r="DQ6" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="DR6" s="5">
+        <v>118</v>
+      </c>
+      <c r="DS6" s="4">
+        <v>109.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;8&amp;K000000 SMU Classification: Restricted&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>